--- a/xls/flos/result/flos_prodotti_9569.xlsx
+++ b/xls/flos/result/flos_prodotti_9569.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet 1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$T$245</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$B$103:$B$245</definedName>
   </definedNames>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -5308,7 +5308,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T245"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="B103" sqref="B103:B245"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
